--- a/result/NCDC_weather_data/stations_imputed/58730099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58730099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.2861</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>8.952380657263751</v>
+      </c>
       <c r="O2" t="n">
         <v>132.44</v>
       </c>
@@ -625,7 +627,9 @@
       <c r="M3" t="n">
         <v>1.491876</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>8.952380657263751</v>
+      </c>
       <c r="O3" t="n">
         <v>145.94</v>
       </c>
